--- a/Applications/IntelliDivide/Samples/Requests/Cutting/Template/Kitchen.xlsx
+++ b/Applications/IntelliDivide/Samples/Requests/Cutting/Template/Kitchen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tb10bow\Documents\GitHub\HOMAG-Connect\Applications\IntelliDivide\Samples\Requests\Template\Cutting\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\HOMAG-Connect\Applications\IntelliDivide\Samples\Requests\Cutting\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2661724C-528B-44B0-9B51-D68C27C9BE68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{692BA036-EA4E-4A8A-B9DB-251A722FF488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57492" yWindow="-108" windowWidth="38616" windowHeight="21216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cutting list productionRack" sheetId="1" r:id="rId1"/>
@@ -252,16 +252,16 @@
     <t>Edge right</t>
   </si>
   <si>
-    <t>P2_White_19</t>
-  </si>
-  <si>
     <t>PP_White_1.3_22_HM</t>
   </si>
   <si>
-    <t>P2_Gold Craft Oak_19</t>
-  </si>
-  <si>
     <t>PP_Oak_bright_1.3_22_HM</t>
+  </si>
+  <si>
+    <t>P2_Gold_Craft_Oak_19.0</t>
+  </si>
+  <si>
+    <t>P2_White_19.0</t>
   </si>
 </sst>
 </file>
@@ -1073,32 +1073,32 @@
   <dimension ref="A1:R57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:XFD57"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="27.88671875" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.85546875" customWidth="1"/>
     <col min="12" max="12" width="30" customWidth="1"/>
-    <col min="13" max="13" width="29.6640625" customWidth="1"/>
-    <col min="14" max="14" width="30.44140625" customWidth="1"/>
-    <col min="15" max="15" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.44140625" customWidth="1"/>
-    <col min="17" max="17" width="22.44140625" customWidth="1"/>
-    <col min="18" max="18" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="29.7109375" customWidth="1"/>
+    <col min="14" max="14" width="30.42578125" customWidth="1"/>
+    <col min="15" max="15" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.42578125" customWidth="1"/>
+    <col min="17" max="17" width="22.42578125" customWidth="1"/>
+    <col min="18" max="18" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>64</v>
       </c>
@@ -1154,7 +1154,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -1165,7 +1165,7 @@
         <v>44</v>
       </c>
       <c r="D2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E2">
         <v>2200</v>
@@ -1186,16 +1186,16 @@
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O2" t="s">
         <v>18</v>
@@ -1210,7 +1210,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>40</v>
       </c>
@@ -1220,8 +1220,8 @@
       <c r="C3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D3" t="s">
-        <v>72</v>
+      <c r="D3" s="8" t="s">
+        <v>75</v>
       </c>
       <c r="E3">
         <v>2200</v>
@@ -1242,16 +1242,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O3" t="s">
         <v>20</v>
@@ -1263,7 +1263,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -1273,8 +1273,8 @@
       <c r="C4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D4" t="s">
-        <v>72</v>
+      <c r="D4" s="8" t="s">
+        <v>75</v>
       </c>
       <c r="E4">
         <v>399</v>
@@ -1295,16 +1295,16 @@
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O4" t="s">
         <v>13</v>
@@ -1316,7 +1316,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>36</v>
       </c>
@@ -1327,7 +1327,7 @@
         <v>44</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E5">
         <v>2061</v>
@@ -1357,7 +1357,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>37</v>
       </c>
@@ -1368,7 +1368,7 @@
         <v>44</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E6">
         <v>2061</v>
@@ -1389,16 +1389,16 @@
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O6" t="s">
         <v>16</v>
@@ -1410,7 +1410,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>38</v>
       </c>
@@ -1421,7 +1421,7 @@
         <v>44</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E7">
         <v>2061</v>
@@ -1442,16 +1442,16 @@
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O7" t="s">
         <v>17</v>
@@ -1463,7 +1463,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -1474,7 +1474,7 @@
         <v>45</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E8">
         <v>985</v>
@@ -1495,16 +1495,16 @@
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O8" t="s">
         <v>1</v>
@@ -1516,7 +1516,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -1527,7 +1527,7 @@
         <v>45</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E9">
         <v>985</v>
@@ -1548,16 +1548,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O9" t="s">
         <v>4</v>
@@ -1569,7 +1569,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -1580,7 +1580,7 @@
         <v>45</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E10">
         <v>1224</v>
@@ -1601,16 +1601,16 @@
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O10" t="s">
         <v>5</v>
@@ -1622,7 +1622,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -1633,7 +1633,7 @@
         <v>45</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E11">
         <v>1224</v>
@@ -1654,16 +1654,16 @@
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O11" t="s">
         <v>6</v>
@@ -1675,7 +1675,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -1686,7 +1686,7 @@
         <v>45</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E12">
         <v>947</v>
@@ -1707,16 +1707,16 @@
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O12" t="s">
         <v>7</v>
@@ -1731,7 +1731,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -1742,7 +1742,7 @@
         <v>45</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E13">
         <v>947</v>
@@ -1763,16 +1763,16 @@
         <v>0</v>
       </c>
       <c r="K13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O13" t="s">
         <v>2</v>
@@ -1787,7 +1787,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -1798,7 +1798,7 @@
         <v>45</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E14">
         <v>947</v>
@@ -1828,7 +1828,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -1860,16 +1860,16 @@
         <v>0</v>
       </c>
       <c r="K15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="M15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="N15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="Q15" t="s">
         <v>42</v>
@@ -1878,7 +1878,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -1889,7 +1889,7 @@
         <v>46</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E16">
         <v>985</v>
@@ -1910,16 +1910,16 @@
         <v>0</v>
       </c>
       <c r="K16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O16" t="s">
         <v>9</v>
@@ -1934,7 +1934,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -1945,7 +1945,7 @@
         <v>46</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E17">
         <v>985</v>
@@ -1966,16 +1966,16 @@
         <v>0</v>
       </c>
       <c r="K17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O17" t="s">
         <v>4</v>
@@ -1987,7 +1987,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -1998,7 +1998,7 @@
         <v>46</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E18">
         <v>1224</v>
@@ -2019,16 +2019,16 @@
         <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O18" t="s">
         <v>11</v>
@@ -2040,7 +2040,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -2051,7 +2051,7 @@
         <v>46</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E19">
         <v>1224</v>
@@ -2072,16 +2072,16 @@
         <v>0</v>
       </c>
       <c r="K19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O19" t="s">
         <v>12</v>
@@ -2093,7 +2093,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>34</v>
       </c>
@@ -2104,7 +2104,7 @@
         <v>46</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E20">
         <v>947</v>
@@ -2125,16 +2125,16 @@
         <v>0</v>
       </c>
       <c r="K20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O20" t="s">
         <v>7</v>
@@ -2149,105 +2149,105 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D21" s="8"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D22" s="8"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D23" s="8"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D24" s="8"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D25" s="8"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D26" s="8"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D27" s="8"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D28" s="8"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D29" s="8"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D30" s="8"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D31" s="8"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D32" s="8"/>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D33" s="8"/>
     </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D34" s="8"/>
     </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D35" s="8"/>
     </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D36" s="8"/>
     </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D37" s="8"/>
     </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D38" s="8"/>
     </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D39" s="8"/>
     </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D40" s="8"/>
     </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D41" s="8"/>
     </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D42" s="8"/>
     </row>
-    <row r="43" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D43" s="8"/>
     </row>
-    <row r="44" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D44" s="8"/>
     </row>
-    <row r="45" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D45" s="8"/>
     </row>
-    <row r="46" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D46" s="8"/>
     </row>
-    <row r="47" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D47" s="8"/>
     </row>
-    <row r="48" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D48" s="8"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D49" s="8"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D50" s="8"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B51" s="6"/>
       <c r="D51" s="8"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B52" s="6"/>
       <c r="D52" s="8"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="3"/>
@@ -2258,7 +2258,7 @@
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="3"/>
@@ -2269,7 +2269,7 @@
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
       <c r="B55" s="7"/>
       <c r="C55" s="3"/>
@@ -2280,7 +2280,7 @@
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
       <c r="B56" s="7"/>
       <c r="C56" s="3"/>
@@ -2291,7 +2291,7 @@
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="2"/>
       <c r="B57" s="7"/>
       <c r="C57" s="3"/>
@@ -2318,6 +2318,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101000FB6CB18442CFF40A9A032A31B8434B2" ma:contentTypeVersion="12" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="bae88f39a3eae097b5d9a34cb06d1a6e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ad5fe6aa-b156-497e-ad9e-441e2249d621" xmlns:ns3="96532f05-5a80-4b68-ac54-8d61ffce2017" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c45c65e4aadcafcccce9f3cbb91db05" ns2:_="" ns3:_="">
     <xsd:import namespace="ad5fe6aa-b156-497e-ad9e-441e2249d621"/>
@@ -2534,15 +2543,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -2555,6 +2555,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2C718A4-8CE4-45AD-AD93-7522E59878BF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1291720E-485E-49CF-A228-6C8E9CFDFD95}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2569,14 +2577,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2C718A4-8CE4-45AD-AD93-7522E59878BF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
